--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\balaji.krishnamoorth\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balaji.krishnamoorth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B184077-E40F-49AB-A0A2-4EEF01978070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89147E49-38FA-4FE9-821A-FA1AC21CC423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B190CCB-AA80-478B-9DA7-28161ADEAB2C}"/>
   </bookViews>
@@ -36,60 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Source Table Name</t>
+    <t>Validate if the comments are provided, If present Print YES else Print NO</t>
   </si>
   <si>
-    <t>Source Column Name</t>
+    <t>Validate if the Snowflake SQL Keywords are in Upper Case, If present Print YES else Print NO</t>
   </si>
   <si>
-    <t>Transformation Rule</t>
-  </si>
-  <si>
-    <t>Target Table Name</t>
-  </si>
-  <si>
-    <t>Target Column Name</t>
-  </si>
-  <si>
-    <t>Table A</t>
-  </si>
-  <si>
-    <t>Column 1</t>
-  </si>
-  <si>
-    <t>one to one</t>
-  </si>
-  <si>
-    <t>Table B</t>
-  </si>
-  <si>
-    <t>Column A</t>
-  </si>
-  <si>
-    <t>Column 2</t>
-  </si>
-  <si>
-    <t>Column 3</t>
-  </si>
-  <si>
-    <t>Column 4</t>
-  </si>
-  <si>
-    <t>Column 5</t>
-  </si>
-  <si>
-    <t>Column B</t>
-  </si>
-  <si>
-    <t>Column C</t>
-  </si>
-  <si>
-    <t>Column D</t>
-  </si>
-  <si>
-    <t>Column E</t>
+    <t>Validate if there is a date hardcoded, If present Print YES else Print NO</t>
   </si>
 </sst>
 </file>
@@ -462,122 +417,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09218EF9-9314-47DA-AD5E-E4125E340D39}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
